--- a/Stack_Overflow_Popular_Tags/PopularSOTags.xlsx
+++ b/Stack_Overflow_Popular_Tags/PopularSOTags.xlsx
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2208063</v>
+        <v>2208366</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>606</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5191</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="3">
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1771263</v>
+        <v>1771124</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2859</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="4">
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1707492</v>
+        <v>1708126</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>835</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7554</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="5">
@@ -528,15 +528,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1476131</v>
+        <v>1476004</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2005</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="6">
@@ -549,15 +549,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1400958</v>
+        <v>1400766</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1766</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="7">
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1333133</v>
+        <v>1332845</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1846</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="8">
@@ -591,15 +591,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1067336</v>
+        <v>1067412</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>249</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2147</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="9">
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1011269</v>
+        <v>1011243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>689</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10">
@@ -633,15 +633,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>722438</v>
+        <v>722547</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1400</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="11">
@@ -654,15 +654,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>715354</v>
+        <v>715439</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1386</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="12">
@@ -679,11 +679,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13">
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623552</v>
+        <v>623561</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14">
@@ -717,15 +717,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>588400</v>
+        <v>588555</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1197</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="15">
@@ -738,15 +738,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>399799</v>
+        <v>399939</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1452</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="16">
@@ -759,15 +759,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>384271</v>
+        <v>384337</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>186</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1488</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17">
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>362535</v>
+        <v>362509</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18">
@@ -801,15 +801,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>362235</v>
+        <v>362333</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19">
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>357296</v>
+        <v>357431</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>103</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>715</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20">
@@ -843,15 +843,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>325726</v>
+        <v>325732</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
@@ -864,15 +864,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>317121</v>
+        <v>317122</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22">
@@ -885,15 +885,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307565</v>
+        <v>307515</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303351</v>
+        <v>303393</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24">
@@ -927,15 +927,15 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>300638</v>
+        <v>300847</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>232</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2217</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="25">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>294763</v>
+        <v>294826</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>86</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>691</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26">
@@ -969,15 +969,15 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>291621</v>
+        <v>291613</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -990,15 +990,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>282313</v>
+        <v>282403</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>155</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1350</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="28">
@@ -1011,15 +1011,15 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>264583</v>
+        <v>264639</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>904</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29">
@@ -1032,15 +1032,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>262142</v>
+        <v>262120</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1053,15 +1053,15 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>251686</v>
+        <v>251622</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="31">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>244998</v>
+        <v>245013</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32">
@@ -1095,15 +1095,15 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>239657</v>
+        <v>239677</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33">
@@ -1116,15 +1116,15 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>221042</v>
+        <v>221036</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1137,15 +1137,15 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>219166</v>
+        <v>219179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1158,15 +1158,15 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>215579</v>
+        <v>215549</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -1179,15 +1179,15 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>204079</v>
+        <v>204074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>201641</v>
+        <v>201636</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Stack_Overflow_Popular_Tags/PopularSOTags.xlsx
+++ b/Stack_Overflow_Popular_Tags/PopularSOTags.xlsx
@@ -465,15 +465,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2208366</v>
+        <v>2211471</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>644</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5169</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="3">
@@ -486,15 +486,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1771124</v>
+        <v>1772501</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>404</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2888</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="4">
@@ -507,15 +507,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1708126</v>
+        <v>1712859</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>980</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7556</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="5">
@@ -528,15 +528,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1476004</v>
+        <v>1477034</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>262</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1922</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="6">
@@ -549,15 +549,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1400766</v>
+        <v>1401402</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1723</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="7">
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1332845</v>
+        <v>1333480</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>273</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1793</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="8">
@@ -591,15 +591,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1067412</v>
+        <v>1068522</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>271</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2130</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="9">
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1011243</v>
+        <v>1011509</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>713</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10">
@@ -633,15 +633,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>722547</v>
+        <v>723405</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1416</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11">
@@ -654,15 +654,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>715439</v>
+        <v>716172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>161</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1368</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="12">
@@ -675,15 +675,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>654815</v>
+        <v>655184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13">
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623561</v>
+        <v>623961</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>941</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14">
@@ -717,15 +717,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>588555</v>
+        <v>589333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>149</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1173</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15">
@@ -738,15 +738,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>399939</v>
+        <v>400863</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1407</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16">
@@ -759,15 +759,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>384337</v>
+        <v>385205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1475</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="17">
@@ -776,19 +776,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>asp.net</t>
+          <t>arrays</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>362509</v>
+        <v>362818</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>227</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18">
@@ -797,19 +797,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arrays</t>
+          <t>asp.net</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>362333</v>
+        <v>362595</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>803</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>357431</v>
+        <v>357817</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>739</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>325732</v>
+        <v>325847</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -864,15 +864,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>317122</v>
+        <v>317577</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22">
@@ -885,15 +885,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307515</v>
+        <v>307646</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303393</v>
+        <v>303676</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24">
@@ -927,15 +927,15 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>300847</v>
+        <v>302340</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>276</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2127</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="25">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>294826</v>
+        <v>295197</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>719</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>291613</v>
+        <v>291625</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -990,15 +990,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>282403</v>
+        <v>283096</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1454</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="28">
@@ -1011,15 +1011,15 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>264639</v>
+        <v>265134</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>931</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29">
@@ -1032,15 +1032,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>262120</v>
+        <v>262131</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1053,15 +1053,15 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>251622</v>
+        <v>252095</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>245013</v>
+        <v>245279</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32">
@@ -1095,15 +1095,15 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>239677</v>
+        <v>239925</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33">
@@ -1116,15 +1116,15 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>221036</v>
+        <v>221053</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -1137,15 +1137,15 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>219179</v>
+        <v>219254</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1158,15 +1158,15 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>215549</v>
+        <v>215598</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
@@ -1179,15 +1179,15 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>204074</v>
+        <v>204269</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>201636</v>
+        <v>201752</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
